--- a/pred_ohlcv/54/2019-11-02 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-02 PIVX ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,25 +413,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C2" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D2" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E2" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F2" t="n">
-        <v>975.2862</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>286.6</v>
+        <v>286.4333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C3" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D3" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E3" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F3" t="n">
-        <v>5877.4059</v>
+        <v>975.2862</v>
       </c>
       <c r="G3" t="n">
-        <v>286.6666666666667</v>
+        <v>286.6</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,22 +474,25 @@
         <v>288</v>
       </c>
       <c r="C4" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D4" t="n">
         <v>288</v>
       </c>
       <c r="E4" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F4" t="n">
-        <v>230.5442</v>
+        <v>5877.4059</v>
       </c>
       <c r="G4" t="n">
-        <v>286.8</v>
+        <v>286.6666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -486,25 +500,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D5" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E5" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F5" t="n">
-        <v>977.8336</v>
+        <v>230.5442</v>
       </c>
       <c r="G5" t="n">
-        <v>286.9</v>
+        <v>286.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -524,12 +541,15 @@
         <v>290</v>
       </c>
       <c r="F6" t="n">
-        <v>566</v>
+        <v>977.8336</v>
       </c>
       <c r="G6" t="n">
-        <v>287</v>
+        <v>286.9</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D7" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E7" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F7" t="n">
-        <v>18722.2053</v>
+        <v>566</v>
       </c>
       <c r="G7" t="n">
-        <v>287.1833333333333</v>
+        <v>287</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C8" t="n">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D8" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E8" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F8" t="n">
-        <v>5205.4016</v>
+        <v>18722.2053</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5666666666667</v>
+        <v>287.1833333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C9" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D9" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E9" t="n">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F9" t="n">
-        <v>15560.6376</v>
+        <v>5205.4016</v>
       </c>
       <c r="G9" t="n">
-        <v>287.8333333333333</v>
+        <v>287.5666666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>296</v>
+      </c>
+      <c r="C10" t="n">
         <v>294</v>
       </c>
-      <c r="C10" t="n">
-        <v>291</v>
-      </c>
       <c r="D10" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E10" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F10" t="n">
-        <v>10449.7568</v>
+        <v>15560.6376</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0333333333334</v>
+        <v>287.8333333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C11" t="n">
         <v>291</v>
       </c>
       <c r="D11" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E11" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F11" t="n">
-        <v>9915.777</v>
+        <v>10449.7568</v>
       </c>
       <c r="G11" t="n">
-        <v>288.2333333333333</v>
+        <v>288.0333333333334</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C12" t="n">
         <v>291</v>
@@ -680,12 +715,15 @@
         <v>289</v>
       </c>
       <c r="F12" t="n">
-        <v>1940.5394</v>
+        <v>9915.777</v>
       </c>
       <c r="G12" t="n">
-        <v>288.4666666666666</v>
+        <v>288.2333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C13" t="n">
         <v>291</v>
@@ -703,15 +741,18 @@
         <v>291</v>
       </c>
       <c r="E13" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>1940.5394</v>
       </c>
       <c r="G13" t="n">
-        <v>288.6833333333333</v>
+        <v>288.4666666666666</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E14" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F14" t="n">
-        <v>1308.5526</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>288.8666666666667</v>
+        <v>288.6833333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C15" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D15" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E15" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F15" t="n">
-        <v>1218.1492</v>
+        <v>1308.5526</v>
       </c>
       <c r="G15" t="n">
-        <v>289.0166666666667</v>
+        <v>288.8666666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>290</v>
       </c>
       <c r="C16" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D16" t="n">
         <v>290</v>
       </c>
       <c r="E16" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F16" t="n">
-        <v>27.5629</v>
+        <v>1218.1492</v>
       </c>
       <c r="G16" t="n">
-        <v>289.2</v>
+        <v>289.0166666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C17" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D17" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E17" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F17" t="n">
-        <v>3.9795</v>
+        <v>27.5629</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4166666666667</v>
+        <v>289.2</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C18" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D18" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E18" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F18" t="n">
-        <v>1056.7191</v>
+        <v>3.9795</v>
       </c>
       <c r="G18" t="n">
-        <v>289.6</v>
+        <v>289.4166666666667</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>292</v>
       </c>
       <c r="F19" t="n">
-        <v>926.5993999999999</v>
+        <v>1056.7191</v>
       </c>
       <c r="G19" t="n">
-        <v>289.8</v>
+        <v>289.6</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -885,15 +944,18 @@
         <v>292</v>
       </c>
       <c r="E20" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F20" t="n">
-        <v>523</v>
+        <v>926.5993999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>289.9666666666666</v>
+        <v>289.8</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C21" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D21" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E21" t="n">
         <v>291</v>
       </c>
       <c r="F21" t="n">
-        <v>4436.1566</v>
+        <v>523</v>
       </c>
       <c r="G21" t="n">
-        <v>290.1333333333333</v>
+        <v>289.9666666666666</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C22" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E22" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F22" t="n">
-        <v>1550.1569</v>
+        <v>4436.1566</v>
       </c>
       <c r="G22" t="n">
-        <v>290.3</v>
+        <v>290.1333333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C23" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D23" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E23" t="n">
         <v>290</v>
       </c>
       <c r="F23" t="n">
-        <v>2154.1976</v>
+        <v>1550.1569</v>
       </c>
       <c r="G23" t="n">
-        <v>290.4666666666666</v>
+        <v>290.3</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C24" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D24" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E24" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>2154.1976</v>
       </c>
       <c r="G24" t="n">
-        <v>290.7166666666666</v>
+        <v>290.4666666666666</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1080,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C25" t="n">
         <v>292</v>
@@ -1015,15 +1089,18 @@
         <v>292</v>
       </c>
       <c r="E25" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F25" t="n">
-        <v>1177</v>
+        <v>200</v>
       </c>
       <c r="G25" t="n">
-        <v>290.8666666666667</v>
+        <v>290.7166666666666</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D26" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E26" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F26" t="n">
-        <v>400</v>
+        <v>1177</v>
       </c>
       <c r="G26" t="n">
-        <v>291.0333333333334</v>
+        <v>290.8666666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C27" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D27" t="n">
         <v>291</v>
       </c>
       <c r="E27" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F27" t="n">
-        <v>3299.7156</v>
+        <v>400</v>
       </c>
       <c r="G27" t="n">
-        <v>291.2666666666667</v>
+        <v>291.0333333333334</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C28" t="n">
         <v>290</v>
       </c>
       <c r="D28" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E28" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F28" t="n">
-        <v>1556.4768</v>
+        <v>3299.7156</v>
       </c>
       <c r="G28" t="n">
-        <v>291.4666666666666</v>
+        <v>291.2666666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,21 +1199,24 @@
         <v>290</v>
       </c>
       <c r="C29" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D29" t="n">
         <v>290</v>
       </c>
       <c r="E29" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F29" t="n">
-        <v>699.3404</v>
+        <v>1556.4768</v>
       </c>
       <c r="G29" t="n">
-        <v>291.6166666666667</v>
+        <v>291.4666666666666</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>290</v>
       </c>
       <c r="C30" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D30" t="n">
         <v>290</v>
       </c>
       <c r="E30" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F30" t="n">
-        <v>544.2103</v>
+        <v>699.3404</v>
       </c>
       <c r="G30" t="n">
-        <v>291.7666666666667</v>
+        <v>291.6166666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C31" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D31" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E31" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F31" t="n">
-        <v>4910.628</v>
+        <v>544.2103</v>
       </c>
       <c r="G31" t="n">
-        <v>291.9</v>
+        <v>291.7666666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,7 +1283,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C32" t="n">
         <v>289</v>
@@ -1197,15 +1292,18 @@
         <v>289</v>
       </c>
       <c r="E32" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F32" t="n">
-        <v>1153.8768</v>
+        <v>4910.628</v>
       </c>
       <c r="G32" t="n">
-        <v>291.9333333333333</v>
+        <v>291.9</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>289</v>
       </c>
       <c r="C33" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D33" t="n">
         <v>289</v>
       </c>
       <c r="E33" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F33" t="n">
-        <v>1574.9337</v>
+        <v>1153.8768</v>
       </c>
       <c r="G33" t="n">
-        <v>291.95</v>
+        <v>291.9333333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>289</v>
       </c>
       <c r="C34" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D34" t="n">
         <v>289</v>
       </c>
       <c r="E34" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F34" t="n">
-        <v>12485.5284</v>
+        <v>1574.9337</v>
       </c>
       <c r="G34" t="n">
-        <v>292.05</v>
+        <v>291.95</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>289</v>
       </c>
       <c r="F35" t="n">
-        <v>2483.1089</v>
+        <v>12485.5284</v>
       </c>
       <c r="G35" t="n">
-        <v>292.1166666666667</v>
+        <v>292.05</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>289</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2483.1089</v>
       </c>
       <c r="G36" t="n">
-        <v>292.1833333333333</v>
+        <v>292.1166666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>289</v>
       </c>
       <c r="F37" t="n">
-        <v>4486.8633</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>292.1833333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C38" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D38" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E38" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F38" t="n">
-        <v>987.0703999999999</v>
+        <v>4486.8633</v>
       </c>
       <c r="G38" t="n">
-        <v>292.1666666666667</v>
+        <v>292.1833333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C39" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D39" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E39" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F39" t="n">
-        <v>157.1332</v>
+        <v>987.0703999999999</v>
       </c>
       <c r="G39" t="n">
         <v>292.1666666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>287</v>
       </c>
       <c r="F40" t="n">
-        <v>42.8668</v>
+        <v>157.1332</v>
       </c>
       <c r="G40" t="n">
-        <v>292.1166666666667</v>
+        <v>292.1666666666667</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C41" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D41" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E41" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>42.8668</v>
       </c>
       <c r="G41" t="n">
         <v>292.1166666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C42" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D42" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E42" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F42" t="n">
-        <v>5028</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>292.0833333333333</v>
+        <v>292.1166666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C43" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D43" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E43" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F43" t="n">
-        <v>15586.1575</v>
+        <v>5028</v>
       </c>
       <c r="G43" t="n">
-        <v>292.0166666666667</v>
+        <v>292.0833333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C44" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D44" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E44" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F44" t="n">
-        <v>409.3234</v>
+        <v>15586.1575</v>
       </c>
       <c r="G44" t="n">
-        <v>291.9333333333333</v>
+        <v>292.0166666666667</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C45" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D45" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E45" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F45" t="n">
-        <v>1290.6626</v>
+        <v>409.3234</v>
       </c>
       <c r="G45" t="n">
-        <v>291.9</v>
+        <v>291.9333333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,21 +1692,24 @@
         <v>284</v>
       </c>
       <c r="C46" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D46" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E46" t="n">
         <v>284</v>
       </c>
       <c r="F46" t="n">
-        <v>1237.153</v>
+        <v>1290.6626</v>
       </c>
       <c r="G46" t="n">
-        <v>291.8</v>
+        <v>291.9</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,21 +1721,24 @@
         <v>284</v>
       </c>
       <c r="C47" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D47" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E47" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F47" t="n">
-        <v>2567.9951</v>
+        <v>1237.153</v>
       </c>
       <c r="G47" t="n">
-        <v>291.7166666666666</v>
+        <v>291.8</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C48" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D48" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E48" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F48" t="n">
-        <v>114</v>
+        <v>2567.9951</v>
       </c>
       <c r="G48" t="n">
-        <v>291.4166666666667</v>
+        <v>291.7166666666666</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C49" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D49" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E49" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G49" t="n">
-        <v>291.0833333333333</v>
+        <v>291.4166666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C50" t="n">
         <v>285</v>
@@ -1665,15 +1814,18 @@
         <v>285</v>
       </c>
       <c r="E50" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F50" t="n">
-        <v>2397.2647</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>290.7333333333333</v>
+        <v>291.0833333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>285</v>
       </c>
       <c r="F51" t="n">
-        <v>237329.2053</v>
+        <v>2397.2647</v>
       </c>
       <c r="G51" t="n">
-        <v>290.45</v>
+        <v>290.7333333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>285</v>
       </c>
       <c r="F52" t="n">
-        <v>258904.5876</v>
+        <v>237329.2053</v>
       </c>
       <c r="G52" t="n">
-        <v>290.2</v>
+        <v>290.45</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1895,24 @@
         <v>285</v>
       </c>
       <c r="C53" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D53" t="n">
         <v>285</v>
       </c>
       <c r="E53" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F53" t="n">
-        <v>5226.608</v>
+        <v>258904.5876</v>
       </c>
       <c r="G53" t="n">
-        <v>289.9333333333333</v>
+        <v>290.2</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C54" t="n">
         <v>284</v>
       </c>
       <c r="D54" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E54" t="n">
         <v>284</v>
       </c>
       <c r="F54" t="n">
-        <v>292172.1639</v>
+        <v>5226.608</v>
       </c>
       <c r="G54" t="n">
-        <v>289.6</v>
+        <v>289.9333333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1792,18 +1956,21 @@
         <v>284</v>
       </c>
       <c r="D55" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E55" t="n">
         <v>284</v>
       </c>
       <c r="F55" t="n">
-        <v>843595.6845</v>
+        <v>292172.1639</v>
       </c>
       <c r="G55" t="n">
-        <v>289.25</v>
+        <v>289.6</v>
       </c>
       <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,10 +1979,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C56" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D56" t="n">
         <v>285</v>
@@ -1824,12 +1991,15 @@
         <v>284</v>
       </c>
       <c r="F56" t="n">
-        <v>755.5749</v>
+        <v>843595.6845</v>
       </c>
       <c r="G56" t="n">
-        <v>289.0666666666667</v>
+        <v>289.25</v>
       </c>
       <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C57" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D57" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E57" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F57" t="n">
-        <v>287.2724</v>
+        <v>755.5749</v>
       </c>
       <c r="G57" t="n">
-        <v>288.95</v>
+        <v>289.0666666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,7 +2037,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C58" t="n">
         <v>286</v>
@@ -1873,15 +2046,18 @@
         <v>286</v>
       </c>
       <c r="E58" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F58" t="n">
-        <v>1004.7018</v>
+        <v>287.2724</v>
       </c>
       <c r="G58" t="n">
-        <v>288.8333333333333</v>
+        <v>288.95</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C59" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D59" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E59" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F59" t="n">
-        <v>281.2632</v>
+        <v>1004.7018</v>
       </c>
       <c r="G59" t="n">
-        <v>288.75</v>
+        <v>288.8333333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C60" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D60" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E60" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F60" t="n">
-        <v>3.9756</v>
+        <v>281.2632</v>
       </c>
       <c r="G60" t="n">
-        <v>288.7</v>
+        <v>288.75</v>
       </c>
       <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C61" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D61" t="n">
         <v>287</v>
       </c>
       <c r="E61" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F61" t="n">
-        <v>1724.804</v>
+        <v>3.9756</v>
       </c>
       <c r="G61" t="n">
-        <v>288.6</v>
+        <v>288.7</v>
       </c>
       <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C62" t="n">
         <v>286</v>
       </c>
       <c r="D62" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E62" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F62" t="n">
-        <v>2004.8601</v>
+        <v>1724.804</v>
       </c>
       <c r="G62" t="n">
-        <v>288.5666666666667</v>
+        <v>288.6</v>
       </c>
       <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C63" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D63" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E63" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F63" t="n">
-        <v>1923.601</v>
+        <v>2004.8601</v>
       </c>
       <c r="G63" t="n">
         <v>288.5666666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C64" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D64" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E64" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F64" t="n">
-        <v>146.1479</v>
+        <v>1923.601</v>
       </c>
       <c r="G64" t="n">
-        <v>288.5333333333334</v>
+        <v>288.5666666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C65" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D65" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E65" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F65" t="n">
-        <v>13210.9019</v>
+        <v>146.1479</v>
       </c>
       <c r="G65" t="n">
-        <v>288.3666666666667</v>
+        <v>288.5333333333334</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C66" t="n">
         <v>280</v>
       </c>
       <c r="D66" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E66" t="n">
         <v>280</v>
       </c>
       <c r="F66" t="n">
-        <v>10359.9019</v>
+        <v>13210.9019</v>
       </c>
       <c r="G66" t="n">
-        <v>288.2</v>
+        <v>288.3666666666667</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C67" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D67" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E67" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F67" t="n">
-        <v>733</v>
+        <v>10359.9019</v>
       </c>
       <c r="G67" t="n">
-        <v>288.0666666666667</v>
+        <v>288.2</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C68" t="n">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D68" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E68" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F68" t="n">
-        <v>11060.0541</v>
+        <v>733</v>
       </c>
       <c r="G68" t="n">
-        <v>287.85</v>
+        <v>288.0666666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C69" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D69" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E69" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F69" t="n">
-        <v>24739.8894</v>
+        <v>11060.0541</v>
       </c>
       <c r="G69" t="n">
-        <v>287.7666666666667</v>
+        <v>287.85</v>
       </c>
       <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C70" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D70" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E70" t="n">
         <v>287</v>
       </c>
       <c r="F70" t="n">
-        <v>4026.7195</v>
+        <v>24739.8894</v>
       </c>
       <c r="G70" t="n">
-        <v>287.7</v>
+        <v>287.7666666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C71" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D71" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E71" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F71" t="n">
-        <v>2122.1292</v>
+        <v>4026.7195</v>
       </c>
       <c r="G71" t="n">
-        <v>287.6833333333333</v>
+        <v>287.7</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C72" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D72" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E72" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F72" t="n">
-        <v>154.0195</v>
+        <v>2122.1292</v>
       </c>
       <c r="G72" t="n">
-        <v>287.6166666666667</v>
+        <v>287.6833333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C73" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D73" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E73" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F73" t="n">
-        <v>3.9861</v>
+        <v>154.0195</v>
       </c>
       <c r="G73" t="n">
-        <v>287.5833333333333</v>
+        <v>287.6166666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2501,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C74" t="n">
         <v>289</v>
@@ -2289,15 +2510,18 @@
         <v>289</v>
       </c>
       <c r="E74" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F74" t="n">
-        <v>4586.7998</v>
+        <v>3.9861</v>
       </c>
       <c r="G74" t="n">
-        <v>287.5333333333334</v>
+        <v>287.5833333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C75" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D75" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E75" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F75" t="n">
-        <v>251.44</v>
+        <v>4586.7998</v>
       </c>
       <c r="G75" t="n">
-        <v>287.55</v>
+        <v>287.5333333333334</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2338,18 +2565,21 @@
         <v>290</v>
       </c>
       <c r="D76" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E76" t="n">
         <v>290</v>
       </c>
       <c r="F76" t="n">
-        <v>1072.4641</v>
+        <v>251.44</v>
       </c>
       <c r="G76" t="n">
         <v>287.55</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C77" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D77" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E77" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F77" t="n">
-        <v>3816.2261</v>
+        <v>1072.4641</v>
       </c>
       <c r="G77" t="n">
-        <v>287.4833333333333</v>
+        <v>287.55</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C78" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D78" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E78" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F78" t="n">
-        <v>1358.1019</v>
+        <v>3816.2261</v>
       </c>
       <c r="G78" t="n">
-        <v>287.4666666666666</v>
+        <v>287.4833333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C79" t="n">
         <v>291</v>
       </c>
       <c r="D79" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E79" t="n">
         <v>291</v>
       </c>
       <c r="F79" t="n">
-        <v>104</v>
+        <v>1358.1019</v>
       </c>
       <c r="G79" t="n">
-        <v>287.45</v>
+        <v>287.4666666666666</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C80" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D80" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E80" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F80" t="n">
-        <v>10.5677</v>
+        <v>104</v>
       </c>
       <c r="G80" t="n">
-        <v>287.4</v>
+        <v>287.45</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C81" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D81" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E81" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F81" t="n">
-        <v>10094.8945</v>
+        <v>10.5677</v>
       </c>
       <c r="G81" t="n">
         <v>287.4</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C82" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D82" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E82" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F82" t="n">
-        <v>157.8151</v>
+        <v>10094.8945</v>
       </c>
       <c r="G82" t="n">
-        <v>287.3166666666667</v>
+        <v>287.4</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F83" t="n">
-        <v>528.4687</v>
+        <v>157.8151</v>
       </c>
       <c r="G83" t="n">
-        <v>287.3</v>
+        <v>287.3166666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F84" t="n">
-        <v>1002.1901</v>
+        <v>528.4687</v>
       </c>
       <c r="G84" t="n">
-        <v>287.2166666666666</v>
+        <v>287.3</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>287</v>
       </c>
       <c r="F85" t="n">
-        <v>154.6233</v>
+        <v>1002.1901</v>
       </c>
       <c r="G85" t="n">
-        <v>287.1333333333333</v>
+        <v>287.2166666666666</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C86" t="n">
         <v>287</v>
       </c>
       <c r="D86" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E86" t="n">
         <v>287</v>
       </c>
       <c r="F86" t="n">
-        <v>1475.1694</v>
+        <v>154.6233</v>
       </c>
       <c r="G86" t="n">
-        <v>287.0666666666667</v>
+        <v>287.1333333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>288</v>
       </c>
       <c r="C87" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D87" t="n">
         <v>288</v>
       </c>
       <c r="E87" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F87" t="n">
-        <v>1283.81</v>
+        <v>1475.1694</v>
       </c>
       <c r="G87" t="n">
-        <v>287.0333333333334</v>
+        <v>287.0666666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C88" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D88" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E88" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F88" t="n">
-        <v>2690.562</v>
+        <v>1283.81</v>
       </c>
       <c r="G88" t="n">
         <v>287.0333333333334</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C89" t="n">
         <v>290</v>
@@ -2679,15 +2945,18 @@
         <v>290</v>
       </c>
       <c r="E89" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F89" t="n">
-        <v>4085.0395</v>
+        <v>2690.562</v>
       </c>
       <c r="G89" t="n">
-        <v>287.05</v>
+        <v>287.0333333333334</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>290</v>
       </c>
       <c r="C90" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D90" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E90" t="n">
         <v>290</v>
       </c>
       <c r="F90" t="n">
-        <v>1112.5945</v>
+        <v>4085.0395</v>
       </c>
       <c r="G90" t="n">
-        <v>287.0666666666667</v>
+        <v>287.05</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C91" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D91" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E91" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F91" t="n">
-        <v>7447.7349</v>
+        <v>1112.5945</v>
       </c>
       <c r="G91" t="n">
-        <v>287.1166666666667</v>
+        <v>287.0666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C92" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D92" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E92" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F92" t="n">
-        <v>9124.6047</v>
+        <v>7447.7349</v>
       </c>
       <c r="G92" t="n">
-        <v>287.2</v>
+        <v>287.1166666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,7 +3052,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C93" t="n">
         <v>294</v>
@@ -2786,12 +3064,15 @@
         <v>292</v>
       </c>
       <c r="F93" t="n">
-        <v>2731.8643</v>
+        <v>9124.6047</v>
       </c>
       <c r="G93" t="n">
-        <v>287.3</v>
+        <v>287.2</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2803,21 +3084,24 @@
         <v>294</v>
       </c>
       <c r="C94" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D94" t="n">
         <v>294</v>
       </c>
       <c r="E94" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F94" t="n">
-        <v>300</v>
+        <v>2731.8643</v>
       </c>
       <c r="G94" t="n">
-        <v>287.3666666666667</v>
+        <v>287.3</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C95" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D95" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E95" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F95" t="n">
-        <v>692</v>
+        <v>300</v>
       </c>
       <c r="G95" t="n">
-        <v>287.4666666666666</v>
+        <v>287.3666666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>295</v>
       </c>
       <c r="F96" t="n">
-        <v>3741.1372</v>
+        <v>692</v>
       </c>
       <c r="G96" t="n">
-        <v>287.5666666666667</v>
+        <v>287.4666666666666</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,25 +3168,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C97" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D97" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E97" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F97" t="n">
-        <v>3990</v>
+        <v>3741.1372</v>
       </c>
       <c r="G97" t="n">
-        <v>287.6166666666667</v>
+        <v>287.5666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2907,22 +3200,25 @@
         <v>293</v>
       </c>
       <c r="C98" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D98" t="n">
         <v>293</v>
       </c>
       <c r="E98" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F98" t="n">
-        <v>19.8426</v>
+        <v>3990</v>
       </c>
       <c r="G98" t="n">
-        <v>287.7</v>
+        <v>287.6166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2942,13 +3238,16 @@
         <v>293</v>
       </c>
       <c r="F99" t="n">
-        <v>40</v>
+        <v>19.8426</v>
       </c>
       <c r="G99" t="n">
-        <v>287.8</v>
+        <v>287.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2968,13 +3267,16 @@
         <v>293</v>
       </c>
       <c r="F100" t="n">
-        <v>293.4937</v>
+        <v>40</v>
       </c>
       <c r="G100" t="n">
-        <v>287.9</v>
+        <v>287.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2985,22 +3287,25 @@
         <v>293</v>
       </c>
       <c r="C101" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D101" t="n">
         <v>293</v>
       </c>
       <c r="E101" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F101" t="n">
-        <v>16399.7904</v>
+        <v>293.4937</v>
       </c>
       <c r="G101" t="n">
-        <v>287.9333333333333</v>
+        <v>287.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3008,25 +3313,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C102" t="n">
         <v>291</v>
       </c>
       <c r="D102" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E102" t="n">
         <v>291</v>
       </c>
       <c r="F102" t="n">
-        <v>5587.8758</v>
+        <v>16399.7904</v>
       </c>
       <c r="G102" t="n">
-        <v>287.9833333333333</v>
+        <v>287.9333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3046,12 +3354,15 @@
         <v>291</v>
       </c>
       <c r="F103" t="n">
-        <v>3448.2758</v>
+        <v>5587.8758</v>
       </c>
       <c r="G103" t="n">
-        <v>288.0666666666667</v>
+        <v>287.9833333333333</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C104" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E104" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F104" t="n">
-        <v>953.8847</v>
+        <v>3448.2758</v>
       </c>
       <c r="G104" t="n">
-        <v>288.15</v>
+        <v>288.0666666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>290</v>
       </c>
       <c r="C105" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E105" t="n">
         <v>290</v>
       </c>
       <c r="F105" t="n">
-        <v>3.9828</v>
+        <v>953.8847</v>
       </c>
       <c r="G105" t="n">
-        <v>288.2333333333333</v>
+        <v>288.15</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C106" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" t="n">
         <v>292</v>
       </c>
       <c r="E106" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F106" t="n">
-        <v>1025.1429</v>
+        <v>3.9828</v>
       </c>
       <c r="G106" t="n">
-        <v>288.35</v>
+        <v>288.2333333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3141,21 +3461,24 @@
         <v>292</v>
       </c>
       <c r="C107" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D107" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E107" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F107" t="n">
-        <v>176.3154</v>
+        <v>1025.1429</v>
       </c>
       <c r="G107" t="n">
-        <v>288.45</v>
+        <v>288.35</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,7 +3487,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C108" t="n">
         <v>293</v>
@@ -3173,15 +3496,18 @@
         <v>293</v>
       </c>
       <c r="E108" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F108" t="n">
-        <v>32.8515</v>
+        <v>176.3154</v>
       </c>
       <c r="G108" t="n">
-        <v>288.6166666666667</v>
+        <v>288.45</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C109" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D109" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E109" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F109" t="n">
-        <v>322.981</v>
+        <v>32.8515</v>
       </c>
       <c r="G109" t="n">
-        <v>288.7333333333333</v>
+        <v>288.6166666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C110" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D110" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E110" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F110" t="n">
-        <v>1.11</v>
+        <v>322.981</v>
       </c>
       <c r="G110" t="n">
-        <v>288.8833333333333</v>
+        <v>288.7333333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C111" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D111" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E111" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F111" t="n">
-        <v>314.1699</v>
+        <v>1.11</v>
       </c>
       <c r="G111" t="n">
-        <v>288.9833333333333</v>
+        <v>288.8833333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>291</v>
       </c>
       <c r="F112" t="n">
-        <v>114</v>
+        <v>314.1699</v>
       </c>
       <c r="G112" t="n">
-        <v>289.0833333333333</v>
+        <v>288.9833333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3297,21 +3635,24 @@
         <v>291</v>
       </c>
       <c r="C113" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D113" t="n">
         <v>291</v>
       </c>
       <c r="E113" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F113" t="n">
-        <v>8073.0802</v>
+        <v>114</v>
       </c>
       <c r="G113" t="n">
-        <v>289.1666666666667</v>
+        <v>289.0833333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C114" t="n">
         <v>289</v>
       </c>
       <c r="D114" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E114" t="n">
         <v>289</v>
       </c>
       <c r="F114" t="n">
-        <v>550.6</v>
+        <v>8073.0802</v>
       </c>
       <c r="G114" t="n">
-        <v>289.25</v>
+        <v>289.1666666666667</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>289</v>
       </c>
       <c r="F115" t="n">
-        <v>798.5999</v>
+        <v>550.6</v>
       </c>
       <c r="G115" t="n">
-        <v>289.3333333333333</v>
+        <v>289.25</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,21 +3722,24 @@
         <v>289</v>
       </c>
       <c r="C116" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D116" t="n">
         <v>289</v>
       </c>
       <c r="E116" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F116" t="n">
-        <v>2116.2093</v>
+        <v>798.5999</v>
       </c>
       <c r="G116" t="n">
-        <v>289.3833333333333</v>
+        <v>289.3333333333333</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C117" t="n">
         <v>288</v>
       </c>
       <c r="D117" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E117" t="n">
         <v>288</v>
       </c>
       <c r="F117" t="n">
-        <v>557</v>
+        <v>2116.2093</v>
       </c>
       <c r="G117" t="n">
-        <v>289.4166666666667</v>
+        <v>289.3833333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>288</v>
       </c>
       <c r="F118" t="n">
-        <v>1011.8903</v>
+        <v>557</v>
       </c>
       <c r="G118" t="n">
-        <v>289.45</v>
+        <v>289.4166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>288</v>
       </c>
       <c r="C119" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D119" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E119" t="n">
         <v>288</v>
       </c>
       <c r="F119" t="n">
-        <v>3354.6491</v>
+        <v>1011.8903</v>
       </c>
       <c r="G119" t="n">
-        <v>289.5833333333333</v>
+        <v>289.45</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>288</v>
+      </c>
+      <c r="C120" t="n">
         <v>293</v>
-      </c>
-      <c r="C120" t="n">
-        <v>291</v>
       </c>
       <c r="D120" t="n">
         <v>293</v>
       </c>
       <c r="E120" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F120" t="n">
-        <v>3201.2746</v>
+        <v>3354.6491</v>
       </c>
       <c r="G120" t="n">
-        <v>289.65</v>
+        <v>289.5833333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C121" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D121" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E121" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F121" t="n">
-        <v>104.3997</v>
+        <v>3201.2746</v>
       </c>
       <c r="G121" t="n">
-        <v>289.7166666666666</v>
+        <v>289.65</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C122" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D122" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E122" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F122" t="n">
-        <v>1999.848</v>
+        <v>104.3997</v>
       </c>
       <c r="G122" t="n">
-        <v>289.75</v>
+        <v>289.7166666666666</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C123" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D123" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E123" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F123" t="n">
-        <v>4900.7607</v>
+        <v>1999.848</v>
       </c>
       <c r="G123" t="n">
-        <v>289.7833333333334</v>
+        <v>289.75</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C124" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D124" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E124" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F124" t="n">
-        <v>1174.1672</v>
+        <v>4900.7607</v>
       </c>
       <c r="G124" t="n">
-        <v>289.8166666666667</v>
+        <v>289.7833333333334</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C125" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D125" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E125" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F125" t="n">
-        <v>5944.4851</v>
+        <v>1174.1672</v>
       </c>
       <c r="G125" t="n">
-        <v>289.9166666666667</v>
+        <v>289.8166666666667</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C126" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D126" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E126" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F126" t="n">
-        <v>149.7543</v>
+        <v>5944.4851</v>
       </c>
       <c r="G126" t="n">
-        <v>290.0666666666667</v>
+        <v>289.9166666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>289</v>
       </c>
       <c r="C127" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D127" t="n">
         <v>289</v>
       </c>
       <c r="E127" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F127" t="n">
-        <v>149.7</v>
+        <v>149.7543</v>
       </c>
       <c r="G127" t="n">
-        <v>290.15</v>
+        <v>290.0666666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C128" t="n">
         <v>288</v>
       </c>
       <c r="D128" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E128" t="n">
         <v>288</v>
       </c>
       <c r="F128" t="n">
-        <v>149.7155</v>
+        <v>149.7</v>
       </c>
       <c r="G128" t="n">
-        <v>290.1833333333333</v>
+        <v>290.15</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>288</v>
       </c>
       <c r="F129" t="n">
-        <v>139.4</v>
+        <v>149.7155</v>
       </c>
       <c r="G129" t="n">
-        <v>290.1666666666667</v>
+        <v>290.1833333333333</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,544 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C130" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D130" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E130" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F130" t="n">
-        <v>4967.3</v>
+        <v>139.4</v>
       </c>
       <c r="G130" t="n">
-        <v>290.1166666666667</v>
+        <v>290.1666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>290</v>
-      </c>
-      <c r="C131" t="n">
-        <v>290</v>
-      </c>
-      <c r="D131" t="n">
-        <v>290</v>
-      </c>
-      <c r="E131" t="n">
-        <v>290</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" t="n">
-        <v>290.1166666666667</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>286</v>
-      </c>
-      <c r="C132" t="n">
-        <v>288</v>
-      </c>
-      <c r="D132" t="n">
-        <v>288</v>
-      </c>
-      <c r="E132" t="n">
-        <v>286</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1305.2968</v>
-      </c>
-      <c r="G132" t="n">
-        <v>290.1333333333333</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>288</v>
-      </c>
-      <c r="C133" t="n">
-        <v>288</v>
-      </c>
-      <c r="D133" t="n">
-        <v>289</v>
-      </c>
-      <c r="E133" t="n">
-        <v>287</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1760.821</v>
-      </c>
-      <c r="G133" t="n">
-        <v>290.1166666666667</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>290</v>
-      </c>
-      <c r="C134" t="n">
-        <v>289</v>
-      </c>
-      <c r="D134" t="n">
-        <v>290</v>
-      </c>
-      <c r="E134" t="n">
-        <v>289</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1060.1034</v>
-      </c>
-      <c r="G134" t="n">
-        <v>290.1166666666667</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>290</v>
-      </c>
-      <c r="C135" t="n">
-        <v>290</v>
-      </c>
-      <c r="D135" t="n">
-        <v>290</v>
-      </c>
-      <c r="E135" t="n">
-        <v>290</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1578.8034</v>
-      </c>
-      <c r="G135" t="n">
-        <v>290.1166666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>290</v>
-      </c>
-      <c r="C136" t="n">
-        <v>292</v>
-      </c>
-      <c r="D136" t="n">
-        <v>292</v>
-      </c>
-      <c r="E136" t="n">
-        <v>290</v>
-      </c>
-      <c r="F136" t="n">
-        <v>354.5592</v>
-      </c>
-      <c r="G136" t="n">
-        <v>290.15</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>292</v>
-      </c>
-      <c r="C137" t="n">
-        <v>293</v>
-      </c>
-      <c r="D137" t="n">
-        <v>293</v>
-      </c>
-      <c r="E137" t="n">
-        <v>292</v>
-      </c>
-      <c r="F137" t="n">
-        <v>874.6652</v>
-      </c>
-      <c r="G137" t="n">
-        <v>290.2166666666666</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>293</v>
-      </c>
-      <c r="C138" t="n">
-        <v>292</v>
-      </c>
-      <c r="D138" t="n">
-        <v>293</v>
-      </c>
-      <c r="E138" t="n">
-        <v>292</v>
-      </c>
-      <c r="F138" t="n">
-        <v>860.2922</v>
-      </c>
-      <c r="G138" t="n">
-        <v>290.2333333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>292</v>
-      </c>
-      <c r="C139" t="n">
-        <v>292</v>
-      </c>
-      <c r="D139" t="n">
-        <v>292</v>
-      </c>
-      <c r="E139" t="n">
-        <v>292</v>
-      </c>
-      <c r="F139" t="n">
-        <v>210.4088</v>
-      </c>
-      <c r="G139" t="n">
-        <v>290.25</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>291</v>
-      </c>
-      <c r="C140" t="n">
-        <v>291</v>
-      </c>
-      <c r="D140" t="n">
-        <v>291</v>
-      </c>
-      <c r="E140" t="n">
-        <v>291</v>
-      </c>
-      <c r="F140" t="n">
-        <v>488.5773</v>
-      </c>
-      <c r="G140" t="n">
-        <v>290.2833333333334</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>290</v>
-      </c>
-      <c r="C141" t="n">
-        <v>290</v>
-      </c>
-      <c r="D141" t="n">
-        <v>290</v>
-      </c>
-      <c r="E141" t="n">
-        <v>290</v>
-      </c>
-      <c r="F141" t="n">
-        <v>326</v>
-      </c>
-      <c r="G141" t="n">
-        <v>290.2666666666667</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>290</v>
-      </c>
-      <c r="C142" t="n">
-        <v>290</v>
-      </c>
-      <c r="D142" t="n">
-        <v>290</v>
-      </c>
-      <c r="E142" t="n">
-        <v>290</v>
-      </c>
-      <c r="F142" t="n">
-        <v>482.8034</v>
-      </c>
-      <c r="G142" t="n">
-        <v>290.3166666666667</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>290</v>
-      </c>
-      <c r="C143" t="n">
-        <v>290</v>
-      </c>
-      <c r="D143" t="n">
-        <v>290</v>
-      </c>
-      <c r="E143" t="n">
-        <v>290</v>
-      </c>
-      <c r="F143" t="n">
-        <v>345.2943</v>
-      </c>
-      <c r="G143" t="n">
-        <v>290.3333333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>288</v>
-      </c>
-      <c r="C144" t="n">
-        <v>288</v>
-      </c>
-      <c r="D144" t="n">
-        <v>288</v>
-      </c>
-      <c r="E144" t="n">
-        <v>288</v>
-      </c>
-      <c r="F144" t="n">
-        <v>375</v>
-      </c>
-      <c r="G144" t="n">
-        <v>290.35</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>288</v>
-      </c>
-      <c r="C145" t="n">
-        <v>291</v>
-      </c>
-      <c r="D145" t="n">
-        <v>291</v>
-      </c>
-      <c r="E145" t="n">
-        <v>288</v>
-      </c>
-      <c r="F145" t="n">
-        <v>653.0976000000001</v>
-      </c>
-      <c r="G145" t="n">
-        <v>290.4166666666667</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>291</v>
-      </c>
-      <c r="C146" t="n">
-        <v>291</v>
-      </c>
-      <c r="D146" t="n">
-        <v>291</v>
-      </c>
-      <c r="E146" t="n">
-        <v>291</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1112.1573</v>
-      </c>
-      <c r="G146" t="n">
-        <v>290.4833333333333</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>290</v>
-      </c>
-      <c r="C147" t="n">
-        <v>290</v>
-      </c>
-      <c r="D147" t="n">
-        <v>290</v>
-      </c>
-      <c r="E147" t="n">
-        <v>290</v>
-      </c>
-      <c r="F147" t="n">
-        <v>869.2062</v>
-      </c>
-      <c r="G147" t="n">
-        <v>290.5166666666667</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>291</v>
-      </c>
-      <c r="C148" t="n">
-        <v>291</v>
-      </c>
-      <c r="D148" t="n">
-        <v>291</v>
-      </c>
-      <c r="E148" t="n">
-        <v>291</v>
-      </c>
-      <c r="F148" t="n">
-        <v>651.9047</v>
-      </c>
-      <c r="G148" t="n">
-        <v>290.5333333333334</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>291</v>
-      </c>
-      <c r="C149" t="n">
-        <v>291</v>
-      </c>
-      <c r="D149" t="n">
-        <v>291</v>
-      </c>
-      <c r="E149" t="n">
-        <v>291</v>
-      </c>
-      <c r="F149" t="n">
-        <v>488.9285</v>
-      </c>
-      <c r="G149" t="n">
-        <v>290.55</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>289</v>
-      </c>
-      <c r="C150" t="n">
-        <v>288</v>
-      </c>
-      <c r="D150" t="n">
-        <v>289</v>
-      </c>
-      <c r="E150" t="n">
-        <v>288</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1137.9811</v>
-      </c>
-      <c r="G150" t="n">
-        <v>290.5</v>
-      </c>
-      <c r="H150" t="n">
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
